--- a/ExcelTemplate/Message.xlsx
+++ b/ExcelTemplate/Message.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\AppPlayerMacro\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D656D3E8-C306-4140-A389-4C1F32FBAFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F07DDBC-DEF5-491B-80F1-782E684E5E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15840" yWindow="15780" windowWidth="14010" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="105" windowWidth="24900" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
